--- a/polymer tests.xlsx
+++ b/polymer tests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Folia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Ongoing\PrintyMcPrintface\autosyn\code\Autosyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_14867C6C2C94841D9B7D80E878778F9519D4C939" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1526189-F10A-40BE-986E-92367FF823B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5380" windowHeight="3110"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST INPUT" sheetId="11" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>POSITION</t>
   </si>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,16 +362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +384,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -405,10 +406,14 @@
       <c r="G2" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -433,7 +438,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -462,7 +467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -489,7 +494,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -514,7 +519,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -527,7 +532,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -540,157 +545,157 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>38</v>
       </c>
